--- a/Mindstorms/Spezifikation/Funktionalitätsplanung.xlsx
+++ b/Mindstorms/Spezifikation/Funktionalitätsplanung.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>Motoren bleiben stehen</t>
+  </si>
+  <si>
+    <t>Ja</t>
   </si>
 </sst>
 </file>
@@ -585,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -645,7 +648,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -670,7 +673,7 @@
         <v>47</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -714,7 +717,7 @@
         <v>21</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -725,7 +728,7 @@
         <v>23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -736,7 +739,7 @@
         <v>25</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -759,7 +762,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J13" s="4"/>
     </row>
@@ -771,7 +774,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J14" s="4"/>
     </row>
@@ -783,7 +786,7 @@
         <v>31</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J15" s="4"/>
     </row>
@@ -795,7 +798,7 @@
         <v>33</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -806,7 +809,7 @@
         <v>34</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -834,7 +837,7 @@
         <v>38</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -878,7 +881,7 @@
         <v>39</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -892,7 +895,7 @@
         <v>37</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -903,7 +906,7 @@
         <v>43</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Mindstorms/Spezifikation/Funktionalitätsplanung.xlsx
+++ b/Mindstorms/Spezifikation/Funktionalitätsplanung.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
   <si>
     <t>ID</t>
   </si>
@@ -189,6 +189,24 @@
   </si>
   <si>
     <t>Ja</t>
+  </si>
+  <si>
+    <t>4 Modi … etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keine Kollison zwischen Geistern und so </t>
+  </si>
+  <si>
+    <t>Kommunikation mehr aufteilen?</t>
+  </si>
+  <si>
+    <t>Powerup timer</t>
+  </si>
+  <si>
+    <t>Powerup modus (Geister laufen weg und so)</t>
+  </si>
+  <si>
+    <t>Zeig gefahrene Kanten an  (mit gewonnen und verloren)</t>
   </si>
 </sst>
 </file>
@@ -586,16 +604,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.1796875" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.7265625" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.453125" style="1" bestFit="1" customWidth="1"/>
@@ -909,6 +927,36 @@
         <v>54</v>
       </c>
     </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B29" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B30" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B31" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B32" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Mindstorms/Spezifikation/Funktionalitätsplanung.xlsx
+++ b/Mindstorms/Spezifikation/Funktionalitätsplanung.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kathi_000\Desktop\sep_kl\Mindstorms\Spezifikation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/02fb39c3f1d6df50/Documents/SEP/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12070" windowHeight="8220"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11800"/>
   </bookViews>
   <sheets>
     <sheet name="Planung" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="86">
   <si>
     <t>ID</t>
   </si>
@@ -50,7 +50,79 @@
     <t>Fahren</t>
   </si>
   <si>
-    <t>Kollision</t>
+    <t>Linienverfolgung</t>
+  </si>
+  <si>
+    <t>Motor ansteuern</t>
+  </si>
+  <si>
+    <t>Befehle verarbeiten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kollision </t>
+  </si>
+  <si>
+    <t>Drucksensor</t>
+  </si>
+  <si>
+    <t>Anzeige Spielfeld</t>
+  </si>
+  <si>
+    <t>Anzeige der schon gefahrenen Kanten</t>
+  </si>
+  <si>
+    <t>Darstellung des Spielfeldes am PC</t>
+  </si>
+  <si>
+    <t>Darstellung der Position (aktualisiert)</t>
+  </si>
+  <si>
+    <t>Anzeige der Leben</t>
+  </si>
+  <si>
+    <t>Powerup-Timer</t>
+  </si>
+  <si>
+    <t>Menü</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auswahl Roboter </t>
+  </si>
+  <si>
+    <t>Pauseanzeige</t>
+  </si>
+  <si>
+    <t>Sieganzeige</t>
+  </si>
+  <si>
+    <t>Verlorenanzeige</t>
+  </si>
+  <si>
+    <t>Stoppen der Roboter</t>
+  </si>
+  <si>
+    <t>Modus</t>
+  </si>
+  <si>
+    <t>Sepman-Modus</t>
+  </si>
+  <si>
+    <t>Geist-Modus</t>
+  </si>
+  <si>
+    <t>Verfolgung</t>
+  </si>
+  <si>
+    <t>Zufall</t>
+  </si>
+  <si>
+    <t>Verteidigung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powerup </t>
+  </si>
+  <si>
+    <t>Kommunikation</t>
   </si>
   <si>
     <t>1.1</t>
@@ -59,161 +131,167 @@
     <t>1.2</t>
   </si>
   <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>2.1</t>
   </si>
   <si>
-    <t>Stoppen der Roboter</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>5.2.1</t>
+  </si>
+  <si>
+    <t>5.2.2</t>
+  </si>
+  <si>
+    <t>Senden</t>
+  </si>
+  <si>
+    <t>Empfangen</t>
+  </si>
+  <si>
+    <t>Kommunikation EV3 zu PC</t>
+  </si>
+  <si>
+    <t>Kommunikation PC zu EV3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senden </t>
+  </si>
+  <si>
+    <t>Abgeschlossen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nein </t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>1 Tag</t>
+  </si>
+  <si>
+    <t>3 Tage</t>
+  </si>
+  <si>
+    <t>2 Tage</t>
+  </si>
+  <si>
+    <t>4 Tage</t>
+  </si>
+  <si>
+    <t>5 Tage</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>5.2.3</t>
+  </si>
+  <si>
+    <t>5.2.4</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
     <t>6.1</t>
   </si>
   <si>
-    <t>Spiel pausiert</t>
+    <t>6.1.1</t>
+  </si>
+  <si>
+    <t>6.1.2</t>
   </si>
   <si>
     <t>6.2</t>
   </si>
   <si>
-    <t xml:space="preserve">Drucksensor </t>
-  </si>
-  <si>
-    <t>Anzeige Spielfeld</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>Darstellung des Spielfelds am PC</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>Darstellung der Position (aktualisiert)</t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>Anzeige der Leben</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>Auswahl Roboter(Startscreen)</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>Pausefenster</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>Endfenster</t>
-  </si>
-  <si>
-    <t>Benutzereingabe</t>
-  </si>
-  <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Kommunikation</t>
-  </si>
-  <si>
-    <t>7.1</t>
-  </si>
-  <si>
-    <t>Senden</t>
-  </si>
-  <si>
-    <t>7.2</t>
-  </si>
-  <si>
-    <t>Empfangen</t>
-  </si>
-  <si>
-    <t>Nein</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>Befehle verarbeiten</t>
-  </si>
-  <si>
-    <t>7.1.2.1</t>
-  </si>
-  <si>
-    <t>Linienverfolgung</t>
-  </si>
-  <si>
-    <t>Motor ansteuern</t>
-  </si>
-  <si>
-    <t>Rückmeldung vom EV3 an den PC</t>
-  </si>
-  <si>
-    <t>Menü</t>
-  </si>
-  <si>
-    <t>Virtuelles Spielfeld</t>
-  </si>
-  <si>
-    <t>Motoren bleiben stehen</t>
-  </si>
-  <si>
-    <t>Ja</t>
-  </si>
-  <si>
-    <t>4 Modi … etc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keine Kollison zwischen Geistern und so </t>
-  </si>
-  <si>
-    <t>Kommunikation mehr aufteilen?</t>
-  </si>
-  <si>
-    <t>Powerup timer</t>
-  </si>
-  <si>
-    <t>Powerup modus (Geister laufen weg und so)</t>
-  </si>
-  <si>
-    <t>Zeig gefahrene Kanten an  (mit gewonnen und verloren)</t>
+    <t>6.2.1</t>
+  </si>
+  <si>
+    <t>6.2.2</t>
+  </si>
+  <si>
+    <t>6.1.2, 6.2.1</t>
+  </si>
+  <si>
+    <t>6.1.1, 6.2.2</t>
+  </si>
+  <si>
+    <t>1 Woche</t>
+  </si>
+  <si>
+    <t>8 Tage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Tage </t>
+  </si>
+  <si>
+    <t>1 Stunde</t>
+  </si>
+  <si>
+    <t>5 Stunden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 Tage </t>
+  </si>
+  <si>
+    <t>2 Tag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,8 +307,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,6 +325,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,20 +370,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -604,361 +703,621 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="53.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.7265625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.453125" style="3"/>
+    <col min="1" max="1" width="6.26953125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="34.81640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7265625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="20.7265625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="C2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="B14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="B21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="C28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="C29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B29" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B30" s="1" t="s">
+      <c r="F30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B32" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B34" s="1" t="s">
-        <v>59</v>
+      <c r="C32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>